--- a/basic/web/excel/模版（楼盘信息）.xlsx
+++ b/basic/web/excel/模版（楼盘信息）.xlsx
@@ -2,24 +2,230 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>媒体编号</t>
+  </si>
+  <si>
+    <t>调度编号</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>开发人员</t>
+  </si>
+  <si>
+    <t>维护人员</t>
+  </si>
+  <si>
+    <t>项目状态</t>
+  </si>
+  <si>
+    <t>项目类型</t>
+  </si>
+  <si>
+    <t>项目级别</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>城区</t>
+  </si>
+  <si>
+    <t>社区受众</t>
+  </si>
+  <si>
+    <t>物业公司</t>
+  </si>
+  <si>
+    <t>项目规模</t>
+  </si>
+  <si>
+    <t>楼房(幢)数量</t>
+  </si>
+  <si>
+    <t>总户数</t>
+  </si>
+  <si>
+    <t>已入住户数</t>
+  </si>
+  <si>
+    <t>入住率</t>
+  </si>
+  <si>
+    <t>总单元数</t>
+  </si>
+  <si>
+    <t>每单元平均户数</t>
+  </si>
+  <si>
+    <t>地上车位数</t>
+  </si>
+  <si>
+    <t>地下车位数</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>现在均价(RMB/平米)</t>
+  </si>
+  <si>
+    <t>租金价格(RMB/平米天)</t>
+  </si>
+  <si>
+    <t>物业管理费(RMB/平米)</t>
+  </si>
+  <si>
+    <t>交通特征</t>
+  </si>
+  <si>
+    <t>开盘时间</t>
+  </si>
+  <si>
+    <t>位置信息</t>
+  </si>
+  <si>
+    <t>最低层数</t>
+  </si>
+  <si>
+    <t>最高层数</t>
+  </si>
+  <si>
+    <t>入住时间</t>
+  </si>
+  <si>
+    <t>业主收入水平</t>
+  </si>
+  <si>
+    <t>配套设施</t>
+  </si>
+  <si>
+    <t>禁忌行业</t>
+  </si>
+  <si>
+    <t>周边环境</t>
+  </si>
+  <si>
+    <t>周边环境关键字</t>
+  </si>
+  <si>
+    <t>楼盘荣誉(亮点)描述</t>
+  </si>
+  <si>
+    <t>签约电梯数</t>
+  </si>
+  <si>
+    <t>客梯数</t>
+  </si>
+  <si>
+    <t>货(员工)梯数</t>
+  </si>
+  <si>
+    <t>签约电梯板位数</t>
+  </si>
+  <si>
+    <t>签约候梯厅数</t>
+  </si>
+  <si>
+    <t>签约候梯厅板位数</t>
+  </si>
+  <si>
+    <t>签约总板位数</t>
+  </si>
+  <si>
+    <t>有护板电梯数</t>
+  </si>
+  <si>
+    <t>护板拆除时间(预计)</t>
+  </si>
+  <si>
+    <t>公司属性</t>
+  </si>
+  <si>
+    <t>竞争对手</t>
+  </si>
+  <si>
+    <t>待安装和在框</t>
+  </si>
+  <si>
+    <t>已拆除数</t>
+  </si>
+  <si>
+    <t>在框总数</t>
+  </si>
+  <si>
+    <t>在框赠送</t>
+  </si>
+  <si>
+    <t>待装总数</t>
+  </si>
+  <si>
+    <t>待装赠送</t>
+  </si>
+  <si>
+    <t>物业地址</t>
+  </si>
+  <si>
+    <t>录入时间</t>
+  </si>
+  <si>
+    <t>录入人</t>
+  </si>
+  <si>
+    <t>最后更新时间</t>
+  </si>
+  <si>
+    <t>最后更新人</t>
+  </si>
+  <si>
+    <t>审核时间</t>
+  </si>
+  <si>
+    <t>审核人</t>
+  </si>
+  <si>
+    <t>坐标点</t>
+  </si>
+  <si>
+    <t>楼座数</t>
+  </si>
+  <si>
+    <t>单元数</t>
+  </si>
+  <si>
+    <t>电梯数</t>
+  </si>
+  <si>
+    <t>非电梯数</t>
+  </si>
+  <si>
+    <t>梯内板位数</t>
+  </si>
+  <si>
+    <t>梯外板位数</t>
+  </si>
+  <si>
+    <t>板位总数</t>
+  </si>
+  <si>
+    <t>赠送总数</t>
   </si>
 </sst>
 </file>
@@ -43,15 +249,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -59,15 +283,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -154,7 +455,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -431,21 +732,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="10" max="10" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="19.25" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="8.75" customWidth="1"/>
+    <col min="15" max="15" width="8.875" customWidth="1"/>
+    <col min="16" max="16" width="8.5" customWidth="1"/>
+    <col min="17" max="17" width="9.875" customWidth="1"/>
+    <col min="18" max="19" width="8.75" customWidth="1"/>
+    <col min="20" max="21" width="6.875" customWidth="1"/>
+    <col min="22" max="22" width="31.625" customWidth="1"/>
+    <col min="23" max="23" width="10.75" customWidth="1"/>
+    <col min="24" max="24" width="12.375" customWidth="1"/>
+    <col min="25" max="25" width="11.375" customWidth="1"/>
+    <col min="26" max="26" width="16.125" customWidth="1"/>
+    <col min="27" max="27" width="10.75" customWidth="1"/>
+    <col min="28" max="28" width="17.75" customWidth="1"/>
+    <col min="29" max="30" width="5" customWidth="1"/>
+    <col min="31" max="31" width="10.75" customWidth="1"/>
+    <col min="32" max="32" width="13" customWidth="1"/>
+    <col min="33" max="33" width="19.25" customWidth="1"/>
+    <col min="34" max="36" width="16.125" customWidth="1"/>
+    <col min="37" max="37" width="31.625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5" style="3" customWidth="1"/>
+    <col min="39" max="39" width="6.875" style="3" customWidth="1"/>
+    <col min="40" max="40" width="8.375" style="3" customWidth="1"/>
+    <col min="41" max="41" width="8.75" style="3" customWidth="1"/>
+    <col min="42" max="42" width="7.125" style="3" customWidth="1"/>
+    <col min="43" max="43" width="8.75" style="3" customWidth="1"/>
+    <col min="44" max="45" width="6.875" style="3" customWidth="1"/>
+    <col min="46" max="46" width="11.625" style="3" customWidth="1"/>
+    <col min="47" max="47" width="9.5" style="3" customWidth="1"/>
+    <col min="48" max="48" width="19.25" style="3" customWidth="1"/>
+    <col min="49" max="51" width="6.875" style="3" customWidth="1"/>
+    <col min="52" max="52" width="8.75" style="3" customWidth="1"/>
+    <col min="53" max="54" width="10.75" style="3" customWidth="1"/>
+    <col min="55" max="56" width="8.75" style="3" customWidth="1"/>
+    <col min="57" max="61" width="5" style="3" customWidth="1"/>
+    <col min="62" max="62" width="28.875" customWidth="1"/>
+    <col min="63" max="63" width="16.5" customWidth="1"/>
+    <col min="64" max="64" width="6.875" customWidth="1"/>
+    <col min="65" max="65" width="19.25" customWidth="1"/>
+    <col min="66" max="66" width="6.875" customWidth="1"/>
+    <col min="67" max="67" width="16.5" customWidth="1"/>
+    <col min="68" max="68" width="6.875" customWidth="1"/>
+    <col min="69" max="69" width="20.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:69" ht="13.5" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="BI1:BI2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AW1:BD1"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="BG1:BG2"/>
+    <mergeCell ref="BH1:BH2"/>
+    <mergeCell ref="BN1:BN2"/>
+    <mergeCell ref="BO1:BO2"/>
+    <mergeCell ref="BP1:BP2"/>
+    <mergeCell ref="BQ1:BQ2"/>
+    <mergeCell ref="BJ1:BJ2"/>
+    <mergeCell ref="BK1:BK2"/>
+    <mergeCell ref="BL1:BL2"/>
+    <mergeCell ref="BM1:BM2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -459,7 +1159,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -473,6 +1172,5 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>